--- a/COPsyncPresenceMap.WPF/COPsyncMaps/NorthCarolina/NorthCarolina.xlsx
+++ b/COPsyncPresenceMap.WPF/COPsyncMaps/NorthCarolina/NorthCarolina.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Downloads\COPsyncMaps\NorthCarolina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Documents\COPsyncMaps\NorthCarolina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,9 +552,6 @@
     <t>Pender</t>
   </si>
   <si>
-    <t>New_Hanover</t>
-  </si>
-  <si>
     <t>Duplin</t>
   </si>
   <si>
@@ -634,6 +631,9 @@
   </si>
   <si>
     <t>Gater</t>
+  </si>
+  <si>
+    <t>New Hanover</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" t="s">
         <v>104</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B49" t="s">
         <v>94</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
         <v>87</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B59" t="s">
         <v>91</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
         <v>92</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
         <v>102</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B97" t="s">
         <v>79</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
         <v>82</v>
@@ -1851,7 +1851,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E101">
-    <sortCondition ref="A2:A101"/>
+    <sortCondition ref="A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/COPsyncPresenceMap.WPF/COPsyncMaps/NorthCarolina/NorthCarolina.xlsx
+++ b/COPsyncPresenceMap.WPF/COPsyncMaps/NorthCarolina/NorthCarolina.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Documents\COPsyncMaps\NorthCarolina\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Downloads\COPsyncMaps\NorthCarolina\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -552,6 +552,9 @@
     <t>Pender</t>
   </si>
   <si>
+    <t>New_Hanover</t>
+  </si>
+  <si>
     <t>Duplin</t>
   </si>
   <si>
@@ -631,9 +634,6 @@
   </si>
   <si>
     <t>Gater</t>
-  </si>
-  <si>
-    <t>New Hanover</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1022,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>97</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>100</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s">
         <v>93</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B22" t="s">
         <v>103</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
         <v>86</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
         <v>99</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
         <v>78</v>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B34" t="s">
         <v>84</v>
@@ -1339,7 +1339,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B38" t="s">
         <v>104</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>89</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B47" t="s">
         <v>98</v>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B49" t="s">
         <v>94</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s">
         <v>87</v>
@@ -1475,7 +1475,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s">
         <v>80</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
         <v>91</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
         <v>83</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
         <v>77</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>90</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B68" t="s">
         <v>88</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
         <v>92</v>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B73" t="s">
         <v>102</v>
@@ -1635,7 +1635,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B75" t="s">
         <v>85</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B90" t="s">
         <v>95</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
@@ -1811,7 +1811,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B97" t="s">
         <v>79</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B99" t="s">
         <v>82</v>
@@ -1851,7 +1851,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:E101">
-    <sortCondition ref="A66"/>
+    <sortCondition ref="A2:A101"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
